--- a/pause_fre_sum_data.xlsx
+++ b/pause_fre_sum_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wzx/Downloads/BASE/Final packages/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2BBFAF-7B93-D547-869E-AAF6C2DAA72B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="9500" yWindow="7860" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -73,7 +79,7 @@
     <t>7/219</t>
   </si>
   <si>
-    <t>0/139</t>
+    <t>10/139</t>
   </si>
   <si>
     <t>2/192</t>
@@ -85,7 +91,7 @@
     <t>33/585</t>
   </si>
   <si>
-    <t>0/912</t>
+    <t>30/912</t>
   </si>
   <si>
     <t>45/373</t>
@@ -109,7 +115,7 @@
     <t>255/704</t>
   </si>
   <si>
-    <t>0/1066</t>
+    <t>60/1066</t>
   </si>
   <si>
     <t>158/1144</t>
@@ -121,7 +127,7 @@
     <t>199/761</t>
   </si>
   <si>
-    <t>0/811</t>
+    <t>30/811</t>
   </si>
   <si>
     <t>94/650</t>
@@ -133,7 +139,7 @@
     <t>81/310</t>
   </si>
   <si>
-    <t>0/335</t>
+    <t>13/335</t>
   </si>
   <si>
     <t>51/263</t>
@@ -145,7 +151,7 @@
     <t>0.85/26.03</t>
   </si>
   <si>
-    <t>0.0/16.4</t>
+    <t>2.61/16.4</t>
   </si>
   <si>
     <t>0.27/59.52</t>
@@ -157,7 +163,7 @@
     <t>5.12/69.52</t>
   </si>
   <si>
-    <t>0.0/105.37</t>
+    <t>5.06/105.37</t>
   </si>
   <si>
     <t>5.28/63.13</t>
@@ -181,7 +187,7 @@
     <t>30.88/96.97</t>
   </si>
   <si>
-    <t>0.0/108.19</t>
+    <t>27.19/108.19</t>
   </si>
   <si>
     <t>42.45/119.18</t>
@@ -193,7 +199,7 @@
     <t>20.48/118.35</t>
   </si>
   <si>
-    <t>0.0/78.85</t>
+    <t>13.59/78.85</t>
   </si>
   <si>
     <t>21.12/88.81</t>
@@ -205,7 +211,7 @@
     <t>11.01/43.08</t>
   </si>
   <si>
-    <t>0.0/36.24</t>
+    <t>3.03/36.24</t>
   </si>
   <si>
     <t>13.7/49.95</t>
@@ -217,8 +223,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +287,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -327,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,9 +373,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,6 +425,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,14 +618,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I23" sqref="D23:I23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -618,7 +673,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>36.48</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="G2">
         <v>5.8</v>
@@ -630,7 +685,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -641,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>49.58</v>
+        <v>52.18</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3">
-        <v>32.99</v>
+        <v>31.77</v>
       </c>
       <c r="G3">
-        <v>7.05</v>
+        <v>7.42</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
       </c>
       <c r="I3">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -688,7 +743,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -717,7 +772,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -746,7 +801,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -757,25 +812,25 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>181</v>
+        <v>190.53</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
       <c r="F7">
-        <v>167.55</v>
+        <v>166.54</v>
       </c>
       <c r="G7">
-        <v>25.32</v>
+        <v>26.65</v>
       </c>
       <c r="H7" t="s">
         <v>47</v>
       </c>
       <c r="I7">
-        <v>17.44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -792,7 +847,7 @@
         <v>24</v>
       </c>
       <c r="F8">
-        <v>87.20999999999999</v>
+        <v>87.21</v>
       </c>
       <c r="G8">
         <v>24.58</v>
@@ -804,7 +859,7 @@
         <v>14.36</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -824,7 +879,7 @@
         <v>200.17</v>
       </c>
       <c r="G9">
-        <v>32.16</v>
+        <v>32.159999999999997</v>
       </c>
       <c r="H9" t="s">
         <v>49</v>
@@ -833,7 +888,7 @@
         <v>20.05</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -862,7 +917,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -873,25 +928,25 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>10.02</v>
+        <v>10.55</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11">
-        <v>14.5</v>
+        <v>14.69</v>
       </c>
       <c r="G11">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="H11" t="s">
         <v>51</v>
       </c>
       <c r="I11">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -920,7 +975,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -949,7 +1004,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -978,7 +1033,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -989,25 +1044,25 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>381.9</v>
+        <v>402</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
       </c>
       <c r="F15">
-        <v>218.85</v>
+        <v>205.75</v>
       </c>
       <c r="G15">
-        <v>54.08</v>
+        <v>56.92</v>
       </c>
       <c r="H15" t="s">
         <v>55</v>
       </c>
       <c r="I15">
-        <v>20.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1033,10 +1088,10 @@
         <v>56</v>
       </c>
       <c r="I16">
-        <v>17.51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>17.510000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1065,7 +1120,7 @@
         <v>11.53</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1094,7 +1149,7 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1105,25 +1160,25 @@
         <v>15</v>
       </c>
       <c r="D19">
-        <v>243.52</v>
+        <v>256.33999999999997</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
       </c>
       <c r="F19">
-        <v>162.79</v>
+        <v>156.88</v>
       </c>
       <c r="G19">
-        <v>34.43</v>
+        <v>36.24</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
       </c>
       <c r="I19">
-        <v>16.56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>14.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1152,7 +1207,7 @@
         <v>13.94</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1181,7 +1236,7 @@
         <v>19.04</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1210,7 +1265,7 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1221,25 +1276,25 @@
         <v>15</v>
       </c>
       <c r="D23">
-        <v>114.25</v>
+        <v>120.26</v>
       </c>
       <c r="E23" t="s">
         <v>39</v>
       </c>
       <c r="F23">
-        <v>79.2</v>
+        <v>76.680000000000007</v>
       </c>
       <c r="G23">
-        <v>15.85</v>
+        <v>16.68</v>
       </c>
       <c r="H23" t="s">
         <v>63</v>
       </c>
       <c r="I23">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1265,10 +1320,10 @@
         <v>64</v>
       </c>
       <c r="I24">
-        <v>8.109999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
